--- a/Uploads/BAT-USD_1y.xlsx
+++ b/Uploads/BAT-USD_1y.xlsx
@@ -456,4017 +456,4017 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45481</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18944</v>
+        <v>0.16956</v>
       </c>
       <c r="C2" t="n">
-        <v>325077.46</v>
+        <v>767128.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B3" t="n">
-        <v>0.18968</v>
+        <v>0.17763</v>
       </c>
       <c r="C3" t="n">
-        <v>279549.79</v>
+        <v>307604.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18482</v>
+        <v>0.17908</v>
       </c>
       <c r="C4" t="n">
-        <v>674062.0600000001</v>
+        <v>632056.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="B5" t="n">
-        <v>0.16893</v>
+        <v>0.17942</v>
       </c>
       <c r="C5" t="n">
-        <v>948255.3100000001</v>
+        <v>603431.8199999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16844</v>
+        <v>0.18201</v>
       </c>
       <c r="C6" t="n">
-        <v>2877227.22</v>
+        <v>358819.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45479</v>
+        <v>45486</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17638</v>
+        <v>0.18549</v>
       </c>
       <c r="C7" t="n">
-        <v>413935.83</v>
+        <v>306144.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16561</v>
+        <v>0.18912</v>
       </c>
       <c r="C8" t="n">
-        <v>570999.03</v>
+        <v>531909.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45488</v>
       </c>
       <c r="B9" t="n">
-        <v>0.16956</v>
+        <v>0.19647</v>
       </c>
       <c r="C9" t="n">
-        <v>767128.71</v>
+        <v>709125.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="B10" t="n">
-        <v>0.17763</v>
+        <v>0.19704</v>
       </c>
       <c r="C10" t="n">
-        <v>307604.78</v>
+        <v>565099.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B11" t="n">
-        <v>0.17908</v>
+        <v>0.19647</v>
       </c>
       <c r="C11" t="n">
-        <v>632056.66</v>
+        <v>964301.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B12" t="n">
-        <v>0.17942</v>
+        <v>0.18838</v>
       </c>
       <c r="C12" t="n">
-        <v>603431.8199999999</v>
+        <v>970839.1899999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18201</v>
+        <v>0.20153</v>
       </c>
       <c r="C13" t="n">
-        <v>358819.01</v>
+        <v>656692.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45486</v>
+        <v>45493</v>
       </c>
       <c r="B14" t="n">
-        <v>0.18549</v>
+        <v>0.19902</v>
       </c>
       <c r="C14" t="n">
-        <v>306144.84</v>
+        <v>244806.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B15" t="n">
-        <v>0.18912</v>
+        <v>0.20567</v>
       </c>
       <c r="C15" t="n">
-        <v>531909.55</v>
+        <v>728644.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="B16" t="n">
-        <v>0.19647</v>
+        <v>0.19409</v>
       </c>
       <c r="C16" t="n">
-        <v>709125.11</v>
+        <v>542432.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="B17" t="n">
-        <v>0.19704</v>
+        <v>0.1921</v>
       </c>
       <c r="C17" t="n">
-        <v>565099.79</v>
+        <v>556877.0600000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19647</v>
+        <v>0.19224</v>
       </c>
       <c r="C18" t="n">
-        <v>964301.34</v>
+        <v>2004779.93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45491</v>
+        <v>45498</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18838</v>
+        <v>0.184</v>
       </c>
       <c r="C19" t="n">
-        <v>970839.1899999999</v>
+        <v>914144.6899999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20153</v>
+        <v>0.19304</v>
       </c>
       <c r="C20" t="n">
-        <v>656692.91</v>
+        <v>774128.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45493</v>
+        <v>45500</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19902</v>
+        <v>0.19825</v>
       </c>
       <c r="C21" t="n">
-        <v>244806.94</v>
+        <v>597136.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B22" t="n">
-        <v>0.20567</v>
+        <v>0.19671</v>
       </c>
       <c r="C22" t="n">
-        <v>728644.1</v>
+        <v>760475.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="B23" t="n">
-        <v>0.19409</v>
+        <v>0.19188</v>
       </c>
       <c r="C23" t="n">
-        <v>542432.65</v>
+        <v>516137.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1921</v>
+        <v>0.1924</v>
       </c>
       <c r="C24" t="n">
-        <v>556877.0600000001</v>
+        <v>475203.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45497</v>
+        <v>45504</v>
       </c>
       <c r="B25" t="n">
-        <v>0.19224</v>
+        <v>0.19315</v>
       </c>
       <c r="C25" t="n">
-        <v>2004779.93</v>
+        <v>314881.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45498</v>
+        <v>45505</v>
       </c>
       <c r="B26" t="n">
-        <v>0.184</v>
+        <v>0.18567</v>
       </c>
       <c r="C26" t="n">
-        <v>914144.6899999999</v>
+        <v>739970.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B27" t="n">
-        <v>0.19304</v>
+        <v>0.17018</v>
       </c>
       <c r="C27" t="n">
-        <v>774128.95</v>
+        <v>789111.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45500</v>
+        <v>45507</v>
       </c>
       <c r="B28" t="n">
-        <v>0.19825</v>
+        <v>0.16656</v>
       </c>
       <c r="C28" t="n">
-        <v>597136.97</v>
+        <v>749626.84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B29" t="n">
-        <v>0.19671</v>
+        <v>0.1578</v>
       </c>
       <c r="C29" t="n">
-        <v>760475.54</v>
+        <v>1272518.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="B30" t="n">
-        <v>0.19188</v>
+        <v>0.15268</v>
       </c>
       <c r="C30" t="n">
-        <v>516137.46</v>
+        <v>5668763.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1924</v>
+        <v>0.15634</v>
       </c>
       <c r="C31" t="n">
-        <v>475203.66</v>
+        <v>1181268.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B32" t="n">
-        <v>0.19315</v>
+        <v>0.15448</v>
       </c>
       <c r="C32" t="n">
-        <v>314881.11</v>
+        <v>1079480.84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B33" t="n">
-        <v>0.18567</v>
+        <v>0.16788</v>
       </c>
       <c r="C33" t="n">
-        <v>739970.76</v>
+        <v>1322450.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17018</v>
+        <v>0.16704</v>
       </c>
       <c r="C34" t="n">
-        <v>789111.52</v>
+        <v>2211633.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B35" t="n">
-        <v>0.16656</v>
+        <v>0.16786</v>
       </c>
       <c r="C35" t="n">
-        <v>749626.84</v>
+        <v>685657.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1578</v>
+        <v>0.15825</v>
       </c>
       <c r="C36" t="n">
-        <v>1272518.3</v>
+        <v>561063.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15268</v>
+        <v>0.1637</v>
       </c>
       <c r="C37" t="n">
-        <v>5668763.33</v>
+        <v>607438.39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="B38" t="n">
-        <v>0.15634</v>
+        <v>0.16796</v>
       </c>
       <c r="C38" t="n">
-        <v>1181268.5</v>
+        <v>1444940.11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="B39" t="n">
-        <v>0.15448</v>
+        <v>0.16577</v>
       </c>
       <c r="C39" t="n">
-        <v>1079480.84</v>
+        <v>891264.79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16788</v>
+        <v>0.16121</v>
       </c>
       <c r="C40" t="n">
-        <v>1322450.8</v>
+        <v>947347.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16704</v>
+        <v>0.16009</v>
       </c>
       <c r="C41" t="n">
-        <v>2211633.36</v>
+        <v>651008.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45514</v>
+        <v>45521</v>
       </c>
       <c r="B42" t="n">
-        <v>0.16786</v>
+        <v>0.16358</v>
       </c>
       <c r="C42" t="n">
-        <v>685657.14</v>
+        <v>902680.21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15825</v>
+        <v>0.16407</v>
       </c>
       <c r="C43" t="n">
-        <v>561063.2</v>
+        <v>351238.42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1637</v>
+        <v>0.16875</v>
       </c>
       <c r="C44" t="n">
-        <v>607438.39</v>
+        <v>687855.21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="B45" t="n">
-        <v>0.16796</v>
+        <v>0.17092</v>
       </c>
       <c r="C45" t="n">
-        <v>1444940.11</v>
+        <v>470055.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="B46" t="n">
-        <v>0.16577</v>
+        <v>0.17591</v>
       </c>
       <c r="C46" t="n">
-        <v>891264.79</v>
+        <v>806722.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16121</v>
+        <v>0.17755</v>
       </c>
       <c r="C47" t="n">
-        <v>947347.05</v>
+        <v>1135922.81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16009</v>
+        <v>0.18673</v>
       </c>
       <c r="C48" t="n">
-        <v>651008.17</v>
+        <v>849997.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45521</v>
+        <v>45528</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16358</v>
+        <v>0.19035</v>
       </c>
       <c r="C49" t="n">
-        <v>902680.21</v>
+        <v>847573.36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45522</v>
+        <v>45529</v>
       </c>
       <c r="B50" t="n">
-        <v>0.16407</v>
+        <v>0.18761</v>
       </c>
       <c r="C50" t="n">
-        <v>351238.42</v>
+        <v>341926.79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16875</v>
+        <v>0.17829</v>
       </c>
       <c r="C51" t="n">
-        <v>687855.21</v>
+        <v>683853.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45524</v>
+        <v>45531</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17092</v>
+        <v>0.16937</v>
       </c>
       <c r="C52" t="n">
-        <v>470055.04</v>
+        <v>818716.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="B53" t="n">
-        <v>0.17591</v>
+        <v>0.1642</v>
       </c>
       <c r="C53" t="n">
-        <v>806722.8</v>
+        <v>1071073.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45526</v>
+        <v>45533</v>
       </c>
       <c r="B54" t="n">
-        <v>0.17755</v>
+        <v>0.16492</v>
       </c>
       <c r="C54" t="n">
-        <v>1135922.81</v>
+        <v>589517.58</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="B55" t="n">
-        <v>0.18673</v>
+        <v>0.16552</v>
       </c>
       <c r="C55" t="n">
-        <v>849997.62</v>
+        <v>464388.58</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45528</v>
+        <v>45535</v>
       </c>
       <c r="B56" t="n">
-        <v>0.19035</v>
+        <v>0.16276</v>
       </c>
       <c r="C56" t="n">
-        <v>847573.36</v>
+        <v>264386.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45529</v>
+        <v>45536</v>
       </c>
       <c r="B57" t="n">
-        <v>0.18761</v>
+        <v>0.15773</v>
       </c>
       <c r="C57" t="n">
-        <v>341926.79</v>
+        <v>465367.31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45530</v>
+        <v>45537</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17829</v>
+        <v>0.16492</v>
       </c>
       <c r="C58" t="n">
-        <v>683853.09</v>
+        <v>412335.39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45531</v>
+        <v>45538</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16937</v>
+        <v>0.15879</v>
       </c>
       <c r="C59" t="n">
-        <v>818716.92</v>
+        <v>336858.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45532</v>
+        <v>45539</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1642</v>
+        <v>0.16154</v>
       </c>
       <c r="C60" t="n">
-        <v>1071073.11</v>
+        <v>469203.37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="B61" t="n">
-        <v>0.16492</v>
+        <v>0.15773</v>
       </c>
       <c r="C61" t="n">
-        <v>589517.58</v>
+        <v>274228.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16552</v>
+        <v>0.15271</v>
       </c>
       <c r="C62" t="n">
-        <v>464388.58</v>
+        <v>623546.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45535</v>
+        <v>45542</v>
       </c>
       <c r="B63" t="n">
-        <v>0.16276</v>
+        <v>0.15595</v>
       </c>
       <c r="C63" t="n">
-        <v>264386.23</v>
+        <v>1090567.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45536</v>
+        <v>45543</v>
       </c>
       <c r="B64" t="n">
-        <v>0.15773</v>
+        <v>0.15809</v>
       </c>
       <c r="C64" t="n">
-        <v>465367.31</v>
+        <v>184049.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="B65" t="n">
-        <v>0.16492</v>
+        <v>0.16432</v>
       </c>
       <c r="C65" t="n">
-        <v>412335.39</v>
+        <v>392996.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15879</v>
+        <v>0.16714</v>
       </c>
       <c r="C66" t="n">
-        <v>336858.01</v>
+        <v>354635.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="B67" t="n">
-        <v>0.16154</v>
+        <v>0.16717</v>
       </c>
       <c r="C67" t="n">
-        <v>469203.37</v>
+        <v>770460.79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="B68" t="n">
-        <v>0.15773</v>
+        <v>0.17274</v>
       </c>
       <c r="C68" t="n">
-        <v>274228.31</v>
+        <v>385196.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15271</v>
+        <v>0.17512</v>
       </c>
       <c r="C69" t="n">
-        <v>623546.55</v>
+        <v>381577.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="B70" t="n">
-        <v>0.15595</v>
+        <v>0.173</v>
       </c>
       <c r="C70" t="n">
-        <v>1090567.51</v>
+        <v>395353.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45543</v>
+        <v>45550</v>
       </c>
       <c r="B71" t="n">
-        <v>0.15809</v>
+        <v>0.17144</v>
       </c>
       <c r="C71" t="n">
-        <v>184049.13</v>
+        <v>255388.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45544</v>
+        <v>45551</v>
       </c>
       <c r="B72" t="n">
-        <v>0.16432</v>
+        <v>0.16817</v>
       </c>
       <c r="C72" t="n">
-        <v>392996.7</v>
+        <v>652978.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45545</v>
+        <v>45552</v>
       </c>
       <c r="B73" t="n">
-        <v>0.16714</v>
+        <v>0.17421</v>
       </c>
       <c r="C73" t="n">
-        <v>354635.13</v>
+        <v>943809.35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45546</v>
+        <v>45553</v>
       </c>
       <c r="B74" t="n">
-        <v>0.16717</v>
+        <v>0.17696</v>
       </c>
       <c r="C74" t="n">
-        <v>770460.79</v>
+        <v>611123.45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45547</v>
+        <v>45554</v>
       </c>
       <c r="B75" t="n">
-        <v>0.17274</v>
+        <v>0.18167</v>
       </c>
       <c r="C75" t="n">
-        <v>385196.18</v>
+        <v>906996.6800000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="B76" t="n">
-        <v>0.17512</v>
+        <v>0.18659</v>
       </c>
       <c r="C76" t="n">
-        <v>381577.5</v>
+        <v>462172.78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45549</v>
+        <v>45556</v>
       </c>
       <c r="B77" t="n">
-        <v>0.173</v>
+        <v>0.19515</v>
       </c>
       <c r="C77" t="n">
-        <v>395353.1</v>
+        <v>882947.03</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45550</v>
+        <v>45557</v>
       </c>
       <c r="B78" t="n">
-        <v>0.17144</v>
+        <v>0.18762</v>
       </c>
       <c r="C78" t="n">
-        <v>255388.83</v>
+        <v>801234.39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45551</v>
+        <v>45558</v>
       </c>
       <c r="B79" t="n">
-        <v>0.16817</v>
+        <v>0.19366</v>
       </c>
       <c r="C79" t="n">
-        <v>652978.36</v>
+        <v>646438.36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45552</v>
+        <v>45559</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17421</v>
+        <v>0.19504</v>
       </c>
       <c r="C80" t="n">
-        <v>943809.35</v>
+        <v>1335433.79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45553</v>
+        <v>45560</v>
       </c>
       <c r="B81" t="n">
-        <v>0.17696</v>
+        <v>0.18857</v>
       </c>
       <c r="C81" t="n">
-        <v>611123.45</v>
+        <v>452369.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45554</v>
+        <v>45561</v>
       </c>
       <c r="B82" t="n">
-        <v>0.18167</v>
+        <v>0.19436</v>
       </c>
       <c r="C82" t="n">
-        <v>906996.6800000001</v>
+        <v>644821.42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="B83" t="n">
-        <v>0.18659</v>
+        <v>0.19719</v>
       </c>
       <c r="C83" t="n">
-        <v>462172.78</v>
+        <v>1761190.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="B84" t="n">
-        <v>0.19515</v>
+        <v>0.19257</v>
       </c>
       <c r="C84" t="n">
-        <v>882947.03</v>
+        <v>265795.57</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45557</v>
+        <v>45564</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18762</v>
+        <v>0.19119</v>
       </c>
       <c r="C85" t="n">
-        <v>801234.39</v>
+        <v>437382.53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B86" t="n">
-        <v>0.19366</v>
+        <v>0.1789</v>
       </c>
       <c r="C86" t="n">
-        <v>646438.36</v>
+        <v>875198.5699999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45559</v>
+        <v>45566</v>
       </c>
       <c r="B87" t="n">
-        <v>0.19504</v>
+        <v>0.1676</v>
       </c>
       <c r="C87" t="n">
-        <v>1335433.79</v>
+        <v>1690745.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45560</v>
+        <v>45567</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18857</v>
+        <v>0.16214</v>
       </c>
       <c r="C88" t="n">
-        <v>452369.08</v>
+        <v>1074464.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45561</v>
+        <v>45568</v>
       </c>
       <c r="B89" t="n">
-        <v>0.19436</v>
+        <v>0.16447</v>
       </c>
       <c r="C89" t="n">
-        <v>644821.42</v>
+        <v>1848906.61</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19719</v>
+        <v>0.16928</v>
       </c>
       <c r="C90" t="n">
-        <v>1761190.5</v>
+        <v>778522.87</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45563</v>
+        <v>45570</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19257</v>
+        <v>0.16981</v>
       </c>
       <c r="C91" t="n">
-        <v>265795.57</v>
+        <v>516108.72</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45564</v>
+        <v>45571</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19119</v>
+        <v>0.1747</v>
       </c>
       <c r="C92" t="n">
-        <v>437382.53</v>
+        <v>152874.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45565</v>
+        <v>45572</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1789</v>
+        <v>0.17377</v>
       </c>
       <c r="C93" t="n">
-        <v>875198.5699999999</v>
+        <v>412170.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45566</v>
+        <v>45573</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1676</v>
+        <v>0.17166</v>
       </c>
       <c r="C94" t="n">
-        <v>1690745.91</v>
+        <v>837449.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45567</v>
+        <v>45574</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16214</v>
+        <v>0.1671</v>
       </c>
       <c r="C95" t="n">
-        <v>1074464.09</v>
+        <v>528724.95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45568</v>
+        <v>45575</v>
       </c>
       <c r="B96" t="n">
-        <v>0.16447</v>
+        <v>0.16593</v>
       </c>
       <c r="C96" t="n">
-        <v>1848906.61</v>
+        <v>669478.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="B97" t="n">
-        <v>0.16928</v>
+        <v>0.17296</v>
       </c>
       <c r="C97" t="n">
-        <v>778522.87</v>
+        <v>907479.8100000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45570</v>
+        <v>45577</v>
       </c>
       <c r="B98" t="n">
-        <v>0.16981</v>
+        <v>0.17511</v>
       </c>
       <c r="C98" t="n">
-        <v>516108.72</v>
+        <v>487610.57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45571</v>
+        <v>45578</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1747</v>
+        <v>0.17315</v>
       </c>
       <c r="C99" t="n">
-        <v>152874.7</v>
+        <v>230919.83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45572</v>
+        <v>45579</v>
       </c>
       <c r="B100" t="n">
-        <v>0.17377</v>
+        <v>0.18078</v>
       </c>
       <c r="C100" t="n">
-        <v>412170.14</v>
+        <v>953531.27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45573</v>
+        <v>45580</v>
       </c>
       <c r="B101" t="n">
-        <v>0.17166</v>
+        <v>0.1804</v>
       </c>
       <c r="C101" t="n">
-        <v>837449.02</v>
+        <v>1242526.19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45574</v>
+        <v>45581</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1671</v>
+        <v>0.17663</v>
       </c>
       <c r="C102" t="n">
-        <v>528724.95</v>
+        <v>741504.47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="B103" t="n">
-        <v>0.16593</v>
+        <v>0.17295</v>
       </c>
       <c r="C103" t="n">
-        <v>669478.8</v>
+        <v>899318.75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="B104" t="n">
-        <v>0.17296</v>
+        <v>0.17701</v>
       </c>
       <c r="C104" t="n">
-        <v>907479.8100000001</v>
+        <v>468206.38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45577</v>
+        <v>45584</v>
       </c>
       <c r="B105" t="n">
-        <v>0.17511</v>
+        <v>0.17926</v>
       </c>
       <c r="C105" t="n">
-        <v>487610.57</v>
+        <v>466991.78</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45578</v>
+        <v>45585</v>
       </c>
       <c r="B106" t="n">
-        <v>0.17315</v>
+        <v>0.18399</v>
       </c>
       <c r="C106" t="n">
-        <v>230919.83</v>
+        <v>700764.27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18078</v>
+        <v>0.17817</v>
       </c>
       <c r="C107" t="n">
-        <v>953531.27</v>
+        <v>417732.62</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1804</v>
+        <v>0.17559</v>
       </c>
       <c r="C108" t="n">
-        <v>1242526.19</v>
+        <v>383309.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45581</v>
+        <v>45588</v>
       </c>
       <c r="B109" t="n">
-        <v>0.17663</v>
+        <v>0.17253</v>
       </c>
       <c r="C109" t="n">
-        <v>741504.47</v>
+        <v>913805.91</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45582</v>
+        <v>45589</v>
       </c>
       <c r="B110" t="n">
-        <v>0.17295</v>
+        <v>0.17614</v>
       </c>
       <c r="C110" t="n">
-        <v>899318.75</v>
+        <v>1476578.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17701</v>
+        <v>0.16118</v>
       </c>
       <c r="C111" t="n">
-        <v>468206.38</v>
+        <v>797085.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45584</v>
+        <v>45591</v>
       </c>
       <c r="B112" t="n">
-        <v>0.17926</v>
+        <v>0.16094</v>
       </c>
       <c r="C112" t="n">
-        <v>466991.78</v>
+        <v>537691.71</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45585</v>
+        <v>45592</v>
       </c>
       <c r="B113" t="n">
-        <v>0.18399</v>
+        <v>0.16501</v>
       </c>
       <c r="C113" t="n">
-        <v>700764.27</v>
+        <v>301431.77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="B114" t="n">
-        <v>0.17817</v>
+        <v>0.16564</v>
       </c>
       <c r="C114" t="n">
-        <v>417732.62</v>
+        <v>608738.03</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45587</v>
+        <v>45594</v>
       </c>
       <c r="B115" t="n">
-        <v>0.17559</v>
+        <v>0.17249</v>
       </c>
       <c r="C115" t="n">
-        <v>383309.25</v>
+        <v>601742.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45588</v>
+        <v>45595</v>
       </c>
       <c r="B116" t="n">
-        <v>0.17253</v>
+        <v>0.16989</v>
       </c>
       <c r="C116" t="n">
-        <v>913805.91</v>
+        <v>386356.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45589</v>
+        <v>45596</v>
       </c>
       <c r="B117" t="n">
-        <v>0.17614</v>
+        <v>0.16003</v>
       </c>
       <c r="C117" t="n">
-        <v>1476578.6</v>
+        <v>573574.5699999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="B118" t="n">
-        <v>0.16118</v>
+        <v>0.1597</v>
       </c>
       <c r="C118" t="n">
-        <v>797085.4</v>
+        <v>646922.47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45591</v>
+        <v>45598</v>
       </c>
       <c r="B119" t="n">
-        <v>0.16094</v>
+        <v>0.15502</v>
       </c>
       <c r="C119" t="n">
-        <v>537691.71</v>
+        <v>648752.8100000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45592</v>
+        <v>45599</v>
       </c>
       <c r="B120" t="n">
-        <v>0.16501</v>
+        <v>0.15107</v>
       </c>
       <c r="C120" t="n">
-        <v>301431.77</v>
+        <v>1057509.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45593</v>
+        <v>45600</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16564</v>
+        <v>0.14918</v>
       </c>
       <c r="C121" t="n">
-        <v>608738.03</v>
+        <v>1101016.49</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45594</v>
+        <v>45601</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17249</v>
+        <v>0.15694</v>
       </c>
       <c r="C122" t="n">
-        <v>601742.27</v>
+        <v>821626.8199999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45595</v>
+        <v>45602</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16989</v>
+        <v>0.17074</v>
       </c>
       <c r="C123" t="n">
-        <v>386356.1</v>
+        <v>1820666.38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45596</v>
+        <v>45603</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16003</v>
+        <v>0.17115</v>
       </c>
       <c r="C124" t="n">
-        <v>573574.5699999999</v>
+        <v>1575591.32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1597</v>
+        <v>0.17095</v>
       </c>
       <c r="C125" t="n">
-        <v>646922.47</v>
+        <v>2144102.22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45598</v>
+        <v>45605</v>
       </c>
       <c r="B126" t="n">
-        <v>0.15502</v>
+        <v>0.17508</v>
       </c>
       <c r="C126" t="n">
-        <v>648752.8100000001</v>
+        <v>1013664.45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45599</v>
+        <v>45606</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15107</v>
+        <v>0.18414</v>
       </c>
       <c r="C127" t="n">
-        <v>1057509.5</v>
+        <v>3114706.69</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14918</v>
+        <v>0.19523</v>
       </c>
       <c r="C128" t="n">
-        <v>1101016.49</v>
+        <v>2935798.03</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45601</v>
+        <v>45608</v>
       </c>
       <c r="B129" t="n">
-        <v>0.15694</v>
+        <v>0.19679</v>
       </c>
       <c r="C129" t="n">
-        <v>821626.8199999999</v>
+        <v>4966038.46</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="B130" t="n">
-        <v>0.17074</v>
+        <v>0.18769</v>
       </c>
       <c r="C130" t="n">
-        <v>1820666.38</v>
+        <v>2667676.81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45603</v>
+        <v>45610</v>
       </c>
       <c r="B131" t="n">
-        <v>0.17115</v>
+        <v>0.1815</v>
       </c>
       <c r="C131" t="n">
-        <v>1575591.32</v>
+        <v>3486888.87</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="B132" t="n">
-        <v>0.17095</v>
+        <v>0.19237</v>
       </c>
       <c r="C132" t="n">
-        <v>2144102.22</v>
+        <v>2860520.92</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45605</v>
+        <v>45612</v>
       </c>
       <c r="B133" t="n">
-        <v>0.17508</v>
+        <v>0.21688</v>
       </c>
       <c r="C133" t="n">
-        <v>1013664.45</v>
+        <v>2939546.72</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45606</v>
+        <v>45613</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18414</v>
+        <v>0.19655</v>
       </c>
       <c r="C134" t="n">
-        <v>3114706.69</v>
+        <v>1762489.38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45607</v>
+        <v>45614</v>
       </c>
       <c r="B135" t="n">
-        <v>0.19523</v>
+        <v>0.22702</v>
       </c>
       <c r="C135" t="n">
-        <v>2935798.03</v>
+        <v>4084830.49</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45608</v>
+        <v>45615</v>
       </c>
       <c r="B136" t="n">
-        <v>0.19679</v>
+        <v>0.2156</v>
       </c>
       <c r="C136" t="n">
-        <v>4966038.46</v>
+        <v>3111887.01</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45609</v>
+        <v>45616</v>
       </c>
       <c r="B137" t="n">
-        <v>0.18769</v>
+        <v>0.20549</v>
       </c>
       <c r="C137" t="n">
-        <v>2667676.81</v>
+        <v>2724259.09</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1815</v>
+        <v>0.2152</v>
       </c>
       <c r="C138" t="n">
-        <v>3486888.87</v>
+        <v>2852746.53</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="B139" t="n">
-        <v>0.19237</v>
+        <v>0.23194</v>
       </c>
       <c r="C139" t="n">
-        <v>2860520.92</v>
+        <v>4298861.98</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="B140" t="n">
-        <v>0.21688</v>
+        <v>0.24957</v>
       </c>
       <c r="C140" t="n">
-        <v>2939546.72</v>
+        <v>6327451.23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45613</v>
+        <v>45620</v>
       </c>
       <c r="B141" t="n">
-        <v>0.19655</v>
+        <v>0.28992</v>
       </c>
       <c r="C141" t="n">
-        <v>1762489.38</v>
+        <v>7008908.06</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22702</v>
+        <v>0.2672</v>
       </c>
       <c r="C142" t="n">
-        <v>4084830.49</v>
+        <v>12833324.98</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45615</v>
+        <v>45622</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2156</v>
+        <v>0.28237</v>
       </c>
       <c r="C143" t="n">
-        <v>3111887.01</v>
+        <v>10040376.49</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45616</v>
+        <v>45623</v>
       </c>
       <c r="B144" t="n">
-        <v>0.20549</v>
+        <v>0.29771</v>
       </c>
       <c r="C144" t="n">
-        <v>2724259.09</v>
+        <v>4608758.54</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45617</v>
+        <v>45624</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2152</v>
+        <v>0.30372</v>
       </c>
       <c r="C145" t="n">
-        <v>2852746.53</v>
+        <v>4125429.61</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="B146" t="n">
-        <v>0.23194</v>
+        <v>0.32853</v>
       </c>
       <c r="C146" t="n">
-        <v>4298861.98</v>
+        <v>4840818.97</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="B147" t="n">
-        <v>0.24957</v>
+        <v>0.32</v>
       </c>
       <c r="C147" t="n">
-        <v>6327451.23</v>
+        <v>4928265.18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="B148" t="n">
-        <v>0.28992</v>
+        <v>0.32017</v>
       </c>
       <c r="C148" t="n">
-        <v>7008908.06</v>
+        <v>4912236.79</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45621</v>
+        <v>45628</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2672</v>
+        <v>0.32595</v>
       </c>
       <c r="C149" t="n">
-        <v>12833324.98</v>
+        <v>8707959.23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45622</v>
+        <v>45629</v>
       </c>
       <c r="B150" t="n">
-        <v>0.28237</v>
+        <v>0.35064</v>
       </c>
       <c r="C150" t="n">
-        <v>10040376.49</v>
+        <v>9202593.73</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45623</v>
+        <v>45630</v>
       </c>
       <c r="B151" t="n">
-        <v>0.29771</v>
+        <v>0.35343</v>
       </c>
       <c r="C151" t="n">
-        <v>4608758.54</v>
+        <v>8036236.24</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45624</v>
+        <v>45631</v>
       </c>
       <c r="B152" t="n">
-        <v>0.30372</v>
+        <v>0.33481</v>
       </c>
       <c r="C152" t="n">
-        <v>4125429.61</v>
+        <v>8158003.53</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="B153" t="n">
-        <v>0.32853</v>
+        <v>0.34496</v>
       </c>
       <c r="C153" t="n">
-        <v>4840818.97</v>
+        <v>30817969.16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45626</v>
+        <v>45633</v>
       </c>
       <c r="B154" t="n">
-        <v>0.32</v>
+        <v>0.33878</v>
       </c>
       <c r="C154" t="n">
-        <v>4928265.18</v>
+        <v>6572868.66</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45627</v>
+        <v>45634</v>
       </c>
       <c r="B155" t="n">
-        <v>0.32017</v>
+        <v>0.34012</v>
       </c>
       <c r="C155" t="n">
-        <v>4912236.79</v>
+        <v>2582384.22</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45628</v>
+        <v>45635</v>
       </c>
       <c r="B156" t="n">
-        <v>0.32595</v>
+        <v>0.27607</v>
       </c>
       <c r="C156" t="n">
-        <v>8707959.23</v>
+        <v>10615408.58</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="B157" t="n">
-        <v>0.35064</v>
+        <v>0.26711</v>
       </c>
       <c r="C157" t="n">
-        <v>9202593.73</v>
+        <v>6900031.42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45630</v>
+        <v>45637</v>
       </c>
       <c r="B158" t="n">
-        <v>0.35343</v>
+        <v>0.28993</v>
       </c>
       <c r="C158" t="n">
-        <v>8036236.24</v>
+        <v>4709974.33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45631</v>
+        <v>45638</v>
       </c>
       <c r="B159" t="n">
-        <v>0.33481</v>
+        <v>0.29547</v>
       </c>
       <c r="C159" t="n">
-        <v>8158003.53</v>
+        <v>20733145.64</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="B160" t="n">
-        <v>0.34496</v>
+        <v>0.29523</v>
       </c>
       <c r="C160" t="n">
-        <v>30817969.16</v>
+        <v>1725812.65</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="B161" t="n">
-        <v>0.33878</v>
+        <v>0.27786</v>
       </c>
       <c r="C161" t="n">
-        <v>6572868.66</v>
+        <v>2422018.95</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45634</v>
+        <v>45641</v>
       </c>
       <c r="B162" t="n">
-        <v>0.34012</v>
+        <v>0.28716</v>
       </c>
       <c r="C162" t="n">
-        <v>2582384.22</v>
+        <v>1204269.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="B163" t="n">
-        <v>0.27607</v>
+        <v>0.27904</v>
       </c>
       <c r="C163" t="n">
-        <v>10615408.58</v>
+        <v>1887226.02</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45636</v>
+        <v>45643</v>
       </c>
       <c r="B164" t="n">
-        <v>0.26711</v>
+        <v>0.26329</v>
       </c>
       <c r="C164" t="n">
-        <v>6900031.42</v>
+        <v>2939920.62</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45637</v>
+        <v>45644</v>
       </c>
       <c r="B165" t="n">
-        <v>0.28993</v>
+        <v>0.23822</v>
       </c>
       <c r="C165" t="n">
-        <v>4709974.33</v>
+        <v>9023352.789999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45638</v>
+        <v>45645</v>
       </c>
       <c r="B166" t="n">
-        <v>0.29547</v>
+        <v>0.22329</v>
       </c>
       <c r="C166" t="n">
-        <v>20733145.64</v>
+        <v>5726782.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45639</v>
+        <v>45646</v>
       </c>
       <c r="B167" t="n">
-        <v>0.29523</v>
+        <v>0.22506</v>
       </c>
       <c r="C167" t="n">
-        <v>1725812.65</v>
+        <v>5360382.52</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45640</v>
+        <v>45647</v>
       </c>
       <c r="B168" t="n">
-        <v>0.27786</v>
+        <v>0.20983</v>
       </c>
       <c r="C168" t="n">
-        <v>2422018.95</v>
+        <v>3498977.84</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45641</v>
+        <v>45648</v>
       </c>
       <c r="B169" t="n">
-        <v>0.28716</v>
+        <v>0.21262</v>
       </c>
       <c r="C169" t="n">
-        <v>1204269.2</v>
+        <v>3242714.57</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45642</v>
+        <v>45649</v>
       </c>
       <c r="B170" t="n">
-        <v>0.27904</v>
+        <v>0.23139</v>
       </c>
       <c r="C170" t="n">
-        <v>1887226.02</v>
+        <v>2332021.71</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45643</v>
+        <v>45650</v>
       </c>
       <c r="B171" t="n">
-        <v>0.26329</v>
+        <v>0.27908</v>
       </c>
       <c r="C171" t="n">
-        <v>2939920.62</v>
+        <v>18922526.44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45644</v>
+        <v>45651</v>
       </c>
       <c r="B172" t="n">
-        <v>0.23822</v>
+        <v>0.26055</v>
       </c>
       <c r="C172" t="n">
-        <v>9023352.789999999</v>
+        <v>9383140.33</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45645</v>
+        <v>45652</v>
       </c>
       <c r="B173" t="n">
-        <v>0.22329</v>
+        <v>0.24574</v>
       </c>
       <c r="C173" t="n">
-        <v>5726782.08</v>
+        <v>4076771.76</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45646</v>
+        <v>45653</v>
       </c>
       <c r="B174" t="n">
-        <v>0.22506</v>
+        <v>0.2389</v>
       </c>
       <c r="C174" t="n">
-        <v>5360382.52</v>
+        <v>3893359.58</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45647</v>
+        <v>45654</v>
       </c>
       <c r="B175" t="n">
-        <v>0.20983</v>
+        <v>0.25513</v>
       </c>
       <c r="C175" t="n">
-        <v>3498977.84</v>
+        <v>2048262.45</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45648</v>
+        <v>45655</v>
       </c>
       <c r="B176" t="n">
-        <v>0.21262</v>
+        <v>0.2372</v>
       </c>
       <c r="C176" t="n">
-        <v>3242714.57</v>
+        <v>3414167.13</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45649</v>
+        <v>45656</v>
       </c>
       <c r="B177" t="n">
-        <v>0.23139</v>
+        <v>0.23542</v>
       </c>
       <c r="C177" t="n">
-        <v>2332021.71</v>
+        <v>4519092.35</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45650</v>
+        <v>45657</v>
       </c>
       <c r="B178" t="n">
-        <v>0.27908</v>
+        <v>0.23243</v>
       </c>
       <c r="C178" t="n">
-        <v>18922526.44</v>
+        <v>3364854.81</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45651</v>
+        <v>45658</v>
       </c>
       <c r="B179" t="n">
-        <v>0.26055</v>
+        <v>0.24205</v>
       </c>
       <c r="C179" t="n">
-        <v>9383140.33</v>
+        <v>1530994.9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45652</v>
+        <v>45659</v>
       </c>
       <c r="B180" t="n">
-        <v>0.24574</v>
+        <v>0.2481</v>
       </c>
       <c r="C180" t="n">
-        <v>4076771.76</v>
+        <v>2363026.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2389</v>
+        <v>0.25861</v>
       </c>
       <c r="C181" t="n">
-        <v>3893359.58</v>
+        <v>2293817.94</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45654</v>
+        <v>45661</v>
       </c>
       <c r="B182" t="n">
-        <v>0.25513</v>
+        <v>0.25751</v>
       </c>
       <c r="C182" t="n">
-        <v>2048262.45</v>
+        <v>1084005.91</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45655</v>
+        <v>45662</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2372</v>
+        <v>0.26988</v>
       </c>
       <c r="C183" t="n">
-        <v>3414167.13</v>
+        <v>3741748.76</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45656</v>
+        <v>45663</v>
       </c>
       <c r="B184" t="n">
-        <v>0.23542</v>
+        <v>0.28229</v>
       </c>
       <c r="C184" t="n">
-        <v>4519092.35</v>
+        <v>5265918.28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45657</v>
+        <v>45664</v>
       </c>
       <c r="B185" t="n">
-        <v>0.23243</v>
+        <v>0.25311</v>
       </c>
       <c r="C185" t="n">
-        <v>3364854.81</v>
+        <v>3066708.9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45658</v>
+        <v>45665</v>
       </c>
       <c r="B186" t="n">
-        <v>0.24201</v>
+        <v>0.24656</v>
       </c>
       <c r="C186" t="n">
-        <v>1531122.73</v>
+        <v>4350877.12</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45659</v>
+        <v>45666</v>
       </c>
       <c r="B187" t="n">
-        <v>0.24806</v>
+        <v>0.24749</v>
       </c>
       <c r="C187" t="n">
-        <v>2364574.82</v>
+        <v>2728763.58</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="B188" t="n">
-        <v>0.25942</v>
+        <v>0.25429</v>
       </c>
       <c r="C188" t="n">
-        <v>2292671.52</v>
+        <v>1921284.88</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45661</v>
+        <v>45668</v>
       </c>
       <c r="B189" t="n">
-        <v>0.25764</v>
+        <v>0.25039</v>
       </c>
       <c r="C189" t="n">
-        <v>1083421.88</v>
+        <v>2021863.74</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45662</v>
+        <v>45669</v>
       </c>
       <c r="B190" t="n">
-        <v>0.27015</v>
+        <v>0.24704</v>
       </c>
       <c r="C190" t="n">
-        <v>3741886.86</v>
+        <v>2103909.95</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45663</v>
+        <v>45670</v>
       </c>
       <c r="B191" t="n">
-        <v>0.28229</v>
+        <v>0.23744</v>
       </c>
       <c r="C191" t="n">
-        <v>5264928.22</v>
+        <v>2826266.18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45664</v>
+        <v>45671</v>
       </c>
       <c r="B192" t="n">
-        <v>0.25299</v>
+        <v>0.24886</v>
       </c>
       <c r="C192" t="n">
-        <v>3069900.33</v>
+        <v>966853.73</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45665</v>
+        <v>45672</v>
       </c>
       <c r="B193" t="n">
-        <v>0.24641</v>
+        <v>0.25935</v>
       </c>
       <c r="C193" t="n">
-        <v>4348252.93</v>
+        <v>1706365.67</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45666</v>
+        <v>45673</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2456</v>
+        <v>0.2535</v>
       </c>
       <c r="C194" t="n">
-        <v>2728263.1</v>
+        <v>1506535.49</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="B195" t="n">
-        <v>0.25456</v>
+        <v>0.26397</v>
       </c>
       <c r="C195" t="n">
-        <v>1921600.79</v>
+        <v>1748076.14</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45668</v>
+        <v>45675</v>
       </c>
       <c r="B196" t="n">
-        <v>0.25044</v>
+        <v>0.24934</v>
       </c>
       <c r="C196" t="n">
-        <v>2021874.96</v>
+        <v>2211891.48</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45669</v>
+        <v>45676</v>
       </c>
       <c r="B197" t="n">
-        <v>0.24671</v>
+        <v>0.22567</v>
       </c>
       <c r="C197" t="n">
-        <v>2105516.06</v>
+        <v>3382839.52</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45670</v>
+        <v>45677</v>
       </c>
       <c r="B198" t="n">
-        <v>0.237</v>
+        <v>0.2313</v>
       </c>
       <c r="C198" t="n">
-        <v>2824270.65</v>
+        <v>2817453.31</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45671</v>
+        <v>45678</v>
       </c>
       <c r="B199" t="n">
-        <v>0.24702</v>
+        <v>0.23917</v>
       </c>
       <c r="C199" t="n">
-        <v>966896.4300000001</v>
+        <v>1381245.4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45672</v>
+        <v>45679</v>
       </c>
       <c r="B200" t="n">
-        <v>0.25935</v>
+        <v>0.23026</v>
       </c>
       <c r="C200" t="n">
-        <v>1706318.5</v>
+        <v>1464833.58</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45673</v>
+        <v>45680</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2535</v>
+        <v>0.22962</v>
       </c>
       <c r="C201" t="n">
-        <v>1506535.49</v>
+        <v>3574322.3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="B202" t="n">
-        <v>0.2642</v>
+        <v>0.22444</v>
       </c>
       <c r="C202" t="n">
-        <v>1748193.99</v>
+        <v>3966052.91</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45675</v>
+        <v>45682</v>
       </c>
       <c r="B203" t="n">
-        <v>0.24893</v>
+        <v>0.22893</v>
       </c>
       <c r="C203" t="n">
-        <v>2188483.32</v>
+        <v>813006.1899999999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45676</v>
+        <v>45683</v>
       </c>
       <c r="B204" t="n">
-        <v>0.22605</v>
+        <v>0.22572</v>
       </c>
       <c r="C204" t="n">
-        <v>3381518.24</v>
+        <v>2298474.69</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45677</v>
+        <v>45684</v>
       </c>
       <c r="B205" t="n">
-        <v>0.2313</v>
+        <v>0.22509</v>
       </c>
       <c r="C205" t="n">
-        <v>2817453.31</v>
+        <v>3098617.23</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45678</v>
+        <v>45685</v>
       </c>
       <c r="B206" t="n">
-        <v>0.23917</v>
+        <v>0.20727</v>
       </c>
       <c r="C206" t="n">
-        <v>1381245.4</v>
+        <v>1687111.77</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45679</v>
+        <v>45686</v>
       </c>
       <c r="B207" t="n">
-        <v>0.23026</v>
+        <v>0.21313</v>
       </c>
       <c r="C207" t="n">
-        <v>1464833.58</v>
+        <v>877952.97</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45680</v>
+        <v>45687</v>
       </c>
       <c r="B208" t="n">
-        <v>0.22962</v>
+        <v>0.22294</v>
       </c>
       <c r="C208" t="n">
-        <v>3571272.3</v>
+        <v>1797602.1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45681</v>
+        <v>45688</v>
       </c>
       <c r="B209" t="n">
-        <v>0.22444</v>
+        <v>0.22143</v>
       </c>
       <c r="C209" t="n">
-        <v>3966052.91</v>
+        <v>822868.73</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45682</v>
+        <v>45689</v>
       </c>
       <c r="B210" t="n">
-        <v>0.22879</v>
+        <v>0.20987</v>
       </c>
       <c r="C210" t="n">
-        <v>813025.5600000001</v>
+        <v>935038.0600000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45683</v>
+        <v>45690</v>
       </c>
       <c r="B211" t="n">
-        <v>0.22554</v>
+        <v>0.18783</v>
       </c>
       <c r="C211" t="n">
-        <v>2298680.72</v>
+        <v>3094043.33</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="B212" t="n">
-        <v>0.22467</v>
+        <v>0.19172</v>
       </c>
       <c r="C212" t="n">
-        <v>3100638.09</v>
+        <v>5493936.05</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45685</v>
+        <v>45692</v>
       </c>
       <c r="B213" t="n">
-        <v>0.20727</v>
+        <v>0.18377</v>
       </c>
       <c r="C213" t="n">
-        <v>1684818.7</v>
+        <v>2229544.49</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45686</v>
+        <v>45693</v>
       </c>
       <c r="B214" t="n">
-        <v>0.21317</v>
+        <v>0.17829</v>
       </c>
       <c r="C214" t="n">
-        <v>877954.28</v>
+        <v>1445316.14</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B215" t="n">
-        <v>0.22329</v>
+        <v>0.16908</v>
       </c>
       <c r="C215" t="n">
-        <v>1797828.99</v>
+        <v>1622936.28</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="B216" t="n">
-        <v>0.221</v>
+        <v>0.17175</v>
       </c>
       <c r="C216" t="n">
-        <v>824581.42</v>
+        <v>1304802.78</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45689</v>
+        <v>45696</v>
       </c>
       <c r="B217" t="n">
-        <v>0.20901</v>
+        <v>0.18016</v>
       </c>
       <c r="C217" t="n">
-        <v>933629.25</v>
+        <v>623339.11</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45690</v>
+        <v>45697</v>
       </c>
       <c r="B218" t="n">
-        <v>0.18783</v>
+        <v>0.17673</v>
       </c>
       <c r="C218" t="n">
-        <v>3093511.25</v>
+        <v>955780.63</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45691</v>
+        <v>45698</v>
       </c>
       <c r="B219" t="n">
-        <v>0.19185</v>
+        <v>0.18446</v>
       </c>
       <c r="C219" t="n">
-        <v>5497552.92</v>
+        <v>1054587.65</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45692</v>
+        <v>45699</v>
       </c>
       <c r="B220" t="n">
-        <v>0.18351</v>
+        <v>0.1799</v>
       </c>
       <c r="C220" t="n">
-        <v>2228627.62</v>
+        <v>2322804.97</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45693</v>
+        <v>45700</v>
       </c>
       <c r="B221" t="n">
-        <v>0.17841</v>
+        <v>0.19215</v>
       </c>
       <c r="C221" t="n">
-        <v>1445198.27</v>
+        <v>2339566.49</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="B222" t="n">
-        <v>0.16908</v>
+        <v>0.18737</v>
       </c>
       <c r="C222" t="n">
-        <v>1620354.15</v>
+        <v>2529907.43</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="B223" t="n">
-        <v>0.17125</v>
+        <v>0.18969</v>
       </c>
       <c r="C223" t="n">
-        <v>1305449.17</v>
+        <v>1440338.78</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45696</v>
+        <v>45703</v>
       </c>
       <c r="B224" t="n">
-        <v>0.17955</v>
+        <v>0.18358</v>
       </c>
       <c r="C224" t="n">
-        <v>622836.38</v>
+        <v>1033059.04</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45697</v>
+        <v>45704</v>
       </c>
       <c r="B225" t="n">
-        <v>0.17696</v>
+        <v>0.18598</v>
       </c>
       <c r="C225" t="n">
-        <v>956196.42</v>
+        <v>1697546.34</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45698</v>
+        <v>45705</v>
       </c>
       <c r="B226" t="n">
-        <v>0.18458</v>
+        <v>0.18508</v>
       </c>
       <c r="C226" t="n">
-        <v>1054766.34</v>
+        <v>906913.36</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45699</v>
+        <v>45706</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1799</v>
+        <v>0.17595</v>
       </c>
       <c r="C227" t="n">
-        <v>2323791.96</v>
+        <v>1169823.43</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45700</v>
+        <v>45707</v>
       </c>
       <c r="B228" t="n">
-        <v>0.19215</v>
+        <v>0.17715</v>
       </c>
       <c r="C228" t="n">
-        <v>2337841.36</v>
+        <v>9703482.539999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45701</v>
+        <v>45708</v>
       </c>
       <c r="B229" t="n">
-        <v>0.18737</v>
+        <v>0.18673</v>
       </c>
       <c r="C229" t="n">
-        <v>2529907.43</v>
+        <v>1742282.59</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="B230" t="n">
-        <v>0.18944</v>
+        <v>0.17877</v>
       </c>
       <c r="C230" t="n">
-        <v>1436597.38</v>
+        <v>1867290.52</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45703</v>
+        <v>45710</v>
       </c>
       <c r="B231" t="n">
-        <v>0.18357</v>
+        <v>0.184</v>
       </c>
       <c r="C231" t="n">
-        <v>1036561.51</v>
+        <v>844183.3199999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="B232" t="n">
-        <v>0.18659</v>
+        <v>0.18451</v>
       </c>
       <c r="C232" t="n">
-        <v>1694203.43</v>
+        <v>1230614.92</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B233" t="n">
-        <v>0.18533</v>
+        <v>0.16415</v>
       </c>
       <c r="C233" t="n">
-        <v>907574.87</v>
+        <v>1614912.86</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45706</v>
+        <v>45713</v>
       </c>
       <c r="B234" t="n">
-        <v>0.17614</v>
+        <v>0.16615</v>
       </c>
       <c r="C234" t="n">
-        <v>1176224.22</v>
+        <v>1742027.89</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45707</v>
+        <v>45714</v>
       </c>
       <c r="B235" t="n">
-        <v>0.17716</v>
+        <v>0.16499</v>
       </c>
       <c r="C235" t="n">
-        <v>9696307.359999999</v>
+        <v>9945356.26</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="B236" t="n">
-        <v>0.18701</v>
+        <v>0.16735</v>
       </c>
       <c r="C236" t="n">
-        <v>1741717.89</v>
+        <v>1266258.61</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="B237" t="n">
-        <v>0.17844</v>
+        <v>0.16759</v>
       </c>
       <c r="C237" t="n">
-        <v>1869738.81</v>
+        <v>1895406.09</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45710</v>
+        <v>45717</v>
       </c>
       <c r="B238" t="n">
-        <v>0.18359</v>
+        <v>0.16804</v>
       </c>
       <c r="C238" t="n">
-        <v>841740.63</v>
+        <v>1772983.85</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45711</v>
+        <v>45718</v>
       </c>
       <c r="B239" t="n">
-        <v>0.18425</v>
+        <v>0.18144</v>
       </c>
       <c r="C239" t="n">
-        <v>1230898.03</v>
+        <v>1908183.26</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B240" t="n">
-        <v>0.16406</v>
+        <v>0.15647</v>
       </c>
       <c r="C240" t="n">
-        <v>1614733.35</v>
+        <v>3447411.3</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45713</v>
+        <v>45720</v>
       </c>
       <c r="B241" t="n">
-        <v>0.16634</v>
+        <v>0.15689</v>
       </c>
       <c r="C241" t="n">
-        <v>1742018.22</v>
+        <v>2590722.45</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1659</v>
+        <v>0.16306</v>
       </c>
       <c r="C242" t="n">
-        <v>9945333.529999999</v>
+        <v>1427460.64</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45715</v>
+        <v>45722</v>
       </c>
       <c r="B243" t="n">
-        <v>0.16766</v>
+        <v>0.16146</v>
       </c>
       <c r="C243" t="n">
-        <v>1266259.93</v>
+        <v>2670107.52</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="B244" t="n">
-        <v>0.16747</v>
+        <v>0.16016</v>
       </c>
       <c r="C244" t="n">
-        <v>1895645.96</v>
+        <v>2126351.93</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45717</v>
+        <v>45724</v>
       </c>
       <c r="B245" t="n">
-        <v>0.16804</v>
+        <v>0.15658</v>
       </c>
       <c r="C245" t="n">
-        <v>1772656.01</v>
+        <v>738643.1899999999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45718</v>
+        <v>45725</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1818</v>
+        <v>0.14764</v>
       </c>
       <c r="C246" t="n">
-        <v>1908189.27</v>
+        <v>1400807.81</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45719</v>
+        <v>45726</v>
       </c>
       <c r="B247" t="n">
-        <v>0.15655</v>
+        <v>0.14277</v>
       </c>
       <c r="C247" t="n">
-        <v>3449002.22</v>
+        <v>3490985.93</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45720</v>
+        <v>45727</v>
       </c>
       <c r="B248" t="n">
-        <v>0.15648</v>
+        <v>0.14615</v>
       </c>
       <c r="C248" t="n">
-        <v>2591353.31</v>
+        <v>2783995.48</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45721</v>
+        <v>45728</v>
       </c>
       <c r="B249" t="n">
-        <v>0.16292</v>
+        <v>0.14819</v>
       </c>
       <c r="C249" t="n">
-        <v>1426144.59</v>
+        <v>4013479.9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="B250" t="n">
-        <v>0.16135</v>
+        <v>0.14374</v>
       </c>
       <c r="C250" t="n">
-        <v>2669193.94</v>
+        <v>4112529.66</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="B251" t="n">
-        <v>0.16004</v>
+        <v>0.14901</v>
       </c>
       <c r="C251" t="n">
-        <v>2127183.44</v>
+        <v>1714748.62</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45724</v>
+        <v>45731</v>
       </c>
       <c r="B252" t="n">
-        <v>0.15641</v>
+        <v>0.15046</v>
       </c>
       <c r="C252" t="n">
-        <v>738095.2</v>
+        <v>9605353.449999999</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45725</v>
+        <v>45732</v>
       </c>
       <c r="B253" t="n">
-        <v>0.14715</v>
+        <v>0.14388</v>
       </c>
       <c r="C253" t="n">
-        <v>1400638.21</v>
+        <v>1318297.29</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45726</v>
+        <v>45733</v>
       </c>
       <c r="B254" t="n">
-        <v>0.14277</v>
+        <v>0.15198</v>
       </c>
       <c r="C254" t="n">
-        <v>3490820.02</v>
+        <v>1466396.35</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45727</v>
+        <v>45734</v>
       </c>
       <c r="B255" t="n">
-        <v>0.14615</v>
+        <v>0.1538</v>
       </c>
       <c r="C255" t="n">
-        <v>2783995.48</v>
+        <v>1155787.21</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45728</v>
+        <v>45735</v>
       </c>
       <c r="B256" t="n">
-        <v>0.14797</v>
+        <v>0.1575</v>
       </c>
       <c r="C256" t="n">
-        <v>4010533.89</v>
+        <v>1982935.27</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45729</v>
+        <v>45736</v>
       </c>
       <c r="B257" t="n">
-        <v>0.14338</v>
+        <v>0.15236</v>
       </c>
       <c r="C257" t="n">
-        <v>4114071.9</v>
+        <v>755870.61</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="B258" t="n">
-        <v>0.14912</v>
+        <v>0.14751</v>
       </c>
       <c r="C258" t="n">
-        <v>1712778.43</v>
+        <v>2109549.95</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B259" t="n">
-        <v>0.15056</v>
+        <v>0.14955</v>
       </c>
       <c r="C259" t="n">
-        <v>9605052.68</v>
+        <v>1003377.6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45732</v>
+        <v>45739</v>
       </c>
       <c r="B260" t="n">
-        <v>0.14374</v>
+        <v>0.14886</v>
       </c>
       <c r="C260" t="n">
-        <v>1317659.49</v>
+        <v>971595.89</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45733</v>
+        <v>45740</v>
       </c>
       <c r="B261" t="n">
-        <v>0.15162</v>
+        <v>0.15594</v>
       </c>
       <c r="C261" t="n">
-        <v>1466369.64</v>
+        <v>2575976.7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45734</v>
+        <v>45741</v>
       </c>
       <c r="B262" t="n">
-        <v>0.15373</v>
+        <v>0.15889</v>
       </c>
       <c r="C262" t="n">
-        <v>1156105.9</v>
+        <v>936414.65</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45735</v>
+        <v>45742</v>
       </c>
       <c r="B263" t="n">
-        <v>0.15758</v>
+        <v>0.15419</v>
       </c>
       <c r="C263" t="n">
-        <v>1983352.93</v>
+        <v>1020144.42</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45736</v>
+        <v>45743</v>
       </c>
       <c r="B264" t="n">
-        <v>0.15292</v>
+        <v>0.15344</v>
       </c>
       <c r="C264" t="n">
-        <v>755204.21</v>
+        <v>423662.47</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="B265" t="n">
-        <v>0.14761</v>
+        <v>0.14297</v>
       </c>
       <c r="C265" t="n">
-        <v>2109480</v>
+        <v>692909.8100000001</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B266" t="n">
-        <v>0.14953</v>
+        <v>0.1349</v>
       </c>
       <c r="C266" t="n">
-        <v>1003377.6</v>
+        <v>1451551.04</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45739</v>
+        <v>45746</v>
       </c>
       <c r="B267" t="n">
-        <v>0.14863</v>
+        <v>0.13521</v>
       </c>
       <c r="C267" t="n">
-        <v>977610.66</v>
+        <v>309856.37</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45740</v>
+        <v>45747</v>
       </c>
       <c r="B268" t="n">
-        <v>0.15576</v>
+        <v>0.13693</v>
       </c>
       <c r="C268" t="n">
-        <v>2575961.89</v>
+        <v>1349204.92</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45741</v>
+        <v>45748</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1587</v>
+        <v>0.14007</v>
       </c>
       <c r="C269" t="n">
-        <v>930418.37</v>
+        <v>711677.85</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45742</v>
+        <v>45749</v>
       </c>
       <c r="B270" t="n">
-        <v>0.15428</v>
+        <v>0.12918</v>
       </c>
       <c r="C270" t="n">
-        <v>1020162.81</v>
+        <v>2751547.44</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45743</v>
+        <v>45750</v>
       </c>
       <c r="B271" t="n">
-        <v>0.15312</v>
+        <v>0.13215</v>
       </c>
       <c r="C271" t="n">
-        <v>34570.75</v>
+        <v>1643860.37</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1431</v>
+        <v>0.13403</v>
       </c>
       <c r="C272" t="n">
-        <v>689891.8100000001</v>
+        <v>4130475.37</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1346</v>
+        <v>0.13277</v>
       </c>
       <c r="C273" t="n">
-        <v>1450237.47</v>
+        <v>361502.92</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45746</v>
+        <v>45753</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1354</v>
+        <v>0.11939</v>
       </c>
       <c r="C274" t="n">
-        <v>309904.7</v>
+        <v>1115761.39</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45747</v>
+        <v>45754</v>
       </c>
       <c r="B275" t="n">
-        <v>0.13689</v>
+        <v>0.11877</v>
       </c>
       <c r="C275" t="n">
-        <v>1352388.16</v>
+        <v>2770368.12</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="B276" t="n">
-        <v>0.13998</v>
+        <v>0.11387</v>
       </c>
       <c r="C276" t="n">
-        <v>708480.5600000001</v>
+        <v>2377637.7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45749</v>
+        <v>45756</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1291</v>
+        <v>0.12592</v>
       </c>
       <c r="C277" t="n">
-        <v>2754094.73</v>
+        <v>2634399.62</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B278" t="n">
-        <v>0.13215</v>
+        <v>0.12185</v>
       </c>
       <c r="C278" t="n">
-        <v>1641260.37</v>
+        <v>2975379.44</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B279" t="n">
-        <v>0.13437</v>
+        <v>0.12773</v>
       </c>
       <c r="C279" t="n">
-        <v>4131184.66</v>
+        <v>1267327.12</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B280" t="n">
-        <v>0.13256</v>
+        <v>0.13216</v>
       </c>
       <c r="C280" t="n">
-        <v>360919.54</v>
+        <v>1476662.62</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45753</v>
+        <v>45760</v>
       </c>
       <c r="B281" t="n">
-        <v>0.11951</v>
+        <v>0.12418</v>
       </c>
       <c r="C281" t="n">
-        <v>1115685.48</v>
+        <v>1569445.31</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="B282" t="n">
-        <v>0.11877</v>
+        <v>0.12308</v>
       </c>
       <c r="C282" t="n">
-        <v>2770318.12</v>
+        <v>2252449.35</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45755</v>
+        <v>45762</v>
       </c>
       <c r="B283" t="n">
-        <v>0.11387</v>
+        <v>0.12233</v>
       </c>
       <c r="C283" t="n">
-        <v>2380787.7</v>
+        <v>1589867.47</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45756</v>
+        <v>45763</v>
       </c>
       <c r="B284" t="n">
-        <v>0.12599</v>
+        <v>0.12262</v>
       </c>
       <c r="C284" t="n">
-        <v>2631306.22</v>
+        <v>3077011.86</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45757</v>
+        <v>45764</v>
       </c>
       <c r="B285" t="n">
-        <v>0.12161</v>
+        <v>0.12388</v>
       </c>
       <c r="C285" t="n">
-        <v>2975363.94</v>
+        <v>1924453.44</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45758</v>
+        <v>45765</v>
       </c>
       <c r="B286" t="n">
-        <v>0.12756</v>
+        <v>0.12717</v>
       </c>
       <c r="C286" t="n">
-        <v>1267297.94</v>
+        <v>1390383.6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="B287" t="n">
-        <v>0.13231</v>
+        <v>0.1325</v>
       </c>
       <c r="C287" t="n">
-        <v>1477650.7</v>
+        <v>1297927.85</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1242</v>
+        <v>0.13324</v>
       </c>
       <c r="C288" t="n">
-        <v>1570831.23</v>
+        <v>1126721.94</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45761</v>
+        <v>45768</v>
       </c>
       <c r="B289" t="n">
-        <v>0.12328</v>
+        <v>0.13373</v>
       </c>
       <c r="C289" t="n">
-        <v>2250171.92</v>
+        <v>2685506.86</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45762</v>
+        <v>45769</v>
       </c>
       <c r="B290" t="n">
-        <v>0.12225</v>
+        <v>0.14139</v>
       </c>
       <c r="C290" t="n">
-        <v>1599758.98</v>
+        <v>1713768.69</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B291" t="n">
-        <v>0.12264</v>
+        <v>0.14194</v>
       </c>
       <c r="C291" t="n">
-        <v>3076017.77</v>
+        <v>1626391.73</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B292" t="n">
-        <v>0.12417</v>
+        <v>0.14575</v>
       </c>
       <c r="C292" t="n">
-        <v>1916480.03</v>
+        <v>2388576.55</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45765</v>
+        <v>45772</v>
       </c>
       <c r="B293" t="n">
-        <v>0.12696</v>
+        <v>0.15005</v>
       </c>
       <c r="C293" t="n">
-        <v>1390970.24</v>
+        <v>2644961.21</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1325</v>
+        <v>0.15195</v>
       </c>
       <c r="C294" t="n">
-        <v>1295327.85</v>
+        <v>1246379.19</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B295" t="n">
-        <v>0.13326</v>
+        <v>0.14501</v>
       </c>
       <c r="C295" t="n">
-        <v>1128597.97</v>
+        <v>1408152.76</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45768</v>
+        <v>45775</v>
       </c>
       <c r="B296" t="n">
-        <v>0.13381</v>
+        <v>0.15277</v>
       </c>
       <c r="C296" t="n">
-        <v>2683794.2</v>
+        <v>3467500.26</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="B297" t="n">
-        <v>0.14132</v>
+        <v>0.14949</v>
       </c>
       <c r="C297" t="n">
-        <v>1720793.72</v>
+        <v>954368.24</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45770</v>
+        <v>45777</v>
       </c>
       <c r="B298" t="n">
-        <v>0.14197</v>
+        <v>0.15238</v>
       </c>
       <c r="C298" t="n">
-        <v>1624349.38</v>
+        <v>1044606.49</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45771</v>
+        <v>45778</v>
       </c>
       <c r="B299" t="n">
-        <v>0.14552</v>
+        <v>0.15479</v>
       </c>
       <c r="C299" t="n">
-        <v>2383490.77</v>
+        <v>1465801.9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="B300" t="n">
-        <v>0.15005</v>
+        <v>0.15208</v>
       </c>
       <c r="C300" t="n">
-        <v>2644893.97</v>
+        <v>1334325.5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B301" t="n">
-        <v>0.15271</v>
+        <v>0.14512</v>
       </c>
       <c r="C301" t="n">
-        <v>1251379.19</v>
+        <v>1320599.99</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="B302" t="n">
-        <v>0.14499</v>
+        <v>0.13957</v>
       </c>
       <c r="C302" t="n">
-        <v>1405152.76</v>
+        <v>1718765.93</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45775</v>
+        <v>45782</v>
       </c>
       <c r="B303" t="n">
-        <v>0.15277</v>
+        <v>0.14031</v>
       </c>
       <c r="C303" t="n">
-        <v>3465500.26</v>
+        <v>2415795.25</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45776</v>
+        <v>45783</v>
       </c>
       <c r="B304" t="n">
-        <v>0.14911</v>
+        <v>0.13691</v>
       </c>
       <c r="C304" t="n">
-        <v>954440.97</v>
+        <v>1340176.05</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45777</v>
+        <v>45784</v>
       </c>
       <c r="B305" t="n">
-        <v>0.15211</v>
+        <v>0.13874</v>
       </c>
       <c r="C305" t="n">
-        <v>1048521.68</v>
+        <v>1166325.27</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45778</v>
+        <v>45785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.15478</v>
+        <v>0.1546</v>
       </c>
       <c r="C306" t="n">
-        <v>1461814.65</v>
+        <v>1601205.18</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="B307" t="n">
-        <v>0.15213</v>
+        <v>0.16146</v>
       </c>
       <c r="C307" t="n">
-        <v>1335748.63</v>
+        <v>1507221.14</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B308" t="n">
-        <v>0.14525</v>
+        <v>0.16887</v>
       </c>
       <c r="C308" t="n">
-        <v>1319183.07</v>
+        <v>1295237.98</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B309" t="n">
-        <v>0.13996</v>
+        <v>0.16499</v>
       </c>
       <c r="C309" t="n">
-        <v>1719630.45</v>
+        <v>1099832.25</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45782</v>
+        <v>45789</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1407</v>
+        <v>0.16502</v>
       </c>
       <c r="C310" t="n">
-        <v>2414924.01</v>
+        <v>2553659.06</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45783</v>
+        <v>45790</v>
       </c>
       <c r="B311" t="n">
-        <v>0.13691</v>
+        <v>0.16838</v>
       </c>
       <c r="C311" t="n">
-        <v>1340068.94</v>
+        <v>897808.7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45784</v>
+        <v>45791</v>
       </c>
       <c r="B312" t="n">
-        <v>0.13896</v>
+        <v>0.15998</v>
       </c>
       <c r="C312" t="n">
-        <v>1166539.31</v>
+        <v>960903.37</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="B313" t="n">
-        <v>0.15491</v>
+        <v>0.15374</v>
       </c>
       <c r="C313" t="n">
-        <v>1601645.13</v>
+        <v>1206660.66</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45786</v>
+        <v>45793</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1616</v>
+        <v>0.15059</v>
       </c>
       <c r="C314" t="n">
-        <v>1540319.06</v>
+        <v>1003061.09</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1696</v>
+        <v>0.14409</v>
       </c>
       <c r="C315" t="n">
-        <v>1261431.91</v>
+        <v>838292.75</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B316" t="n">
-        <v>0.16428</v>
+        <v>0.1522</v>
       </c>
       <c r="C316" t="n">
-        <v>1099815.76</v>
+        <v>796299.34</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="B317" t="n">
-        <v>0.16474</v>
+        <v>0.1483</v>
       </c>
       <c r="C317" t="n">
-        <v>2553987.22</v>
+        <v>1153633.87</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45790</v>
+        <v>45797</v>
       </c>
       <c r="B318" t="n">
-        <v>0.16837</v>
+        <v>0.14971</v>
       </c>
       <c r="C318" t="n">
-        <v>897599.74</v>
+        <v>614845.33</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45791</v>
+        <v>45798</v>
       </c>
       <c r="B319" t="n">
-        <v>0.16006</v>
+        <v>0.14972</v>
       </c>
       <c r="C319" t="n">
-        <v>964149.3199999999</v>
+        <v>2215769.63</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="B320" t="n">
-        <v>0.15393</v>
+        <v>0.15881</v>
       </c>
       <c r="C320" t="n">
-        <v>1203295.57</v>
+        <v>1236049.48</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1509</v>
+        <v>0.14587</v>
       </c>
       <c r="C321" t="n">
-        <v>1006353.68</v>
+        <v>1090396.34</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B322" t="n">
-        <v>0.14398</v>
+        <v>0.1444</v>
       </c>
       <c r="C322" t="n">
-        <v>835052.25</v>
+        <v>421414.19</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1522</v>
+        <v>0.14443</v>
       </c>
       <c r="C323" t="n">
-        <v>796239.84</v>
+        <v>556139.22</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="B324" t="n">
-        <v>0.14855</v>
+        <v>0.14083</v>
       </c>
       <c r="C324" t="n">
-        <v>1153693.96</v>
+        <v>583886.01</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="B325" t="n">
-        <v>0.15008</v>
+        <v>0.1445</v>
       </c>
       <c r="C325" t="n">
-        <v>615785.24</v>
+        <v>513205.27</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="B326" t="n">
-        <v>0.14987</v>
+        <v>0.14218</v>
       </c>
       <c r="C326" t="n">
-        <v>2215873.99</v>
+        <v>902724.75</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="B327" t="n">
-        <v>0.15878</v>
+        <v>0.13821</v>
       </c>
       <c r="C327" t="n">
-        <v>1235018.52</v>
+        <v>809183.8100000001</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="B328" t="n">
-        <v>0.14564</v>
+        <v>0.12762</v>
       </c>
       <c r="C328" t="n">
-        <v>1091322.94</v>
+        <v>1496133.8</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B329" t="n">
-        <v>0.14509</v>
+        <v>0.12938</v>
       </c>
       <c r="C329" t="n">
-        <v>422440.05</v>
+        <v>1145788.98</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1437</v>
+        <v>0.12899</v>
       </c>
       <c r="C330" t="n">
-        <v>568503.1800000001</v>
+        <v>760396.39</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="B331" t="n">
-        <v>0.14063</v>
+        <v>0.1345</v>
       </c>
       <c r="C331" t="n">
-        <v>570575.09</v>
+        <v>767454.73</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1447</v>
+        <v>0.13439</v>
       </c>
       <c r="C332" t="n">
-        <v>515689.98</v>
+        <v>353759.05</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="B333" t="n">
-        <v>0.14197</v>
+        <v>0.13194</v>
       </c>
       <c r="C333" t="n">
-        <v>900569.9399999999</v>
+        <v>1019099.05</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="B334" t="n">
-        <v>0.13825</v>
+        <v>0.1254</v>
       </c>
       <c r="C334" t="n">
-        <v>817469.3</v>
+        <v>1244153.79</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="B335" t="n">
-        <v>0.12756</v>
+        <v>0.12839</v>
       </c>
       <c r="C335" t="n">
-        <v>1541128.24</v>
+        <v>295630.74</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B336" t="n">
-        <v>0.12927</v>
+        <v>0.13295</v>
       </c>
       <c r="C336" t="n">
-        <v>1098702.99</v>
+        <v>389797.76</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="B337" t="n">
-        <v>0.12958</v>
+        <v>0.13292</v>
       </c>
       <c r="C337" t="n">
-        <v>752731.88</v>
+        <v>313386.41</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="B338" t="n">
-        <v>0.13534</v>
+        <v>0.13827</v>
       </c>
       <c r="C338" t="n">
-        <v>767463.23</v>
+        <v>841816.88</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="B339" t="n">
-        <v>0.13436</v>
+        <v>0.14339</v>
       </c>
       <c r="C339" t="n">
-        <v>353830.84</v>
+        <v>820477.16</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="B340" t="n">
-        <v>0.13204</v>
+        <v>0.1371</v>
       </c>
       <c r="C340" t="n">
-        <v>1020912.11</v>
+        <v>911307.46</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="B341" t="n">
-        <v>0.12495</v>
+        <v>0.12997</v>
       </c>
       <c r="C341" t="n">
-        <v>1243260.43</v>
+        <v>349752.24</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B342" t="n">
-        <v>0.12821</v>
+        <v>0.12804</v>
       </c>
       <c r="C342" t="n">
-        <v>294640.17</v>
+        <v>804398.16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B343" t="n">
-        <v>0.13299</v>
+        <v>0.12648</v>
       </c>
       <c r="C343" t="n">
-        <v>391668.21</v>
+        <v>548253.9399999999</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B344" t="n">
-        <v>0.13281</v>
+        <v>0.12607</v>
       </c>
       <c r="C344" t="n">
-        <v>312296.76</v>
+        <v>315150.97</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B345" t="n">
-        <v>0.13812</v>
+        <v>0.12652</v>
       </c>
       <c r="C345" t="n">
-        <v>841034.89</v>
+        <v>324199.88</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B346" t="n">
-        <v>0.1432</v>
+        <v>0.1235</v>
       </c>
       <c r="C346" t="n">
-        <v>822696.71</v>
+        <v>515261.67</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B347" t="n">
-        <v>0.13689</v>
+        <v>0.12346</v>
       </c>
       <c r="C347" t="n">
-        <v>909088.2</v>
+        <v>691086.98</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B348" t="n">
-        <v>0.12938</v>
+        <v>0.12295</v>
       </c>
       <c r="C348" t="n">
-        <v>349753.05</v>
+        <v>224238.69</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B349" t="n">
-        <v>0.12794</v>
+        <v>0.12102</v>
       </c>
       <c r="C349" t="n">
-        <v>802374.15</v>
+        <v>669442.33</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B350" t="n">
-        <v>0.12622</v>
+        <v>0.11602</v>
       </c>
       <c r="C350" t="n">
-        <v>557155.65</v>
+        <v>853116.15</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B351" t="n">
-        <v>0.12579</v>
+        <v>0.11223</v>
       </c>
       <c r="C351" t="n">
-        <v>306318.58</v>
+        <v>897152.17</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B352" t="n">
-        <v>0.12639</v>
+        <v>0.12277</v>
       </c>
       <c r="C352" t="n">
-        <v>324121.91</v>
+        <v>902713.63</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1237</v>
+        <v>0.12516</v>
       </c>
       <c r="C353" t="n">
-        <v>516062.04</v>
+        <v>791641.36</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B354" t="n">
-        <v>0.12292</v>
+        <v>0.12277</v>
       </c>
       <c r="C354" t="n">
-        <v>690295.51</v>
+        <v>1089894.46</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B355" t="n">
-        <v>0.12295</v>
+        <v>0.12027</v>
       </c>
       <c r="C355" t="n">
-        <v>224228.99</v>
+        <v>823540.83</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B356" t="n">
-        <v>0.12085</v>
+        <v>0.12247</v>
       </c>
       <c r="C356" t="n">
-        <v>671511.16</v>
+        <v>489316.45</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B357" t="n">
-        <v>0.11604</v>
+        <v>0.12762</v>
       </c>
       <c r="C357" t="n">
-        <v>851056.2</v>
+        <v>439500.49</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B358" t="n">
-        <v>0.11224</v>
+        <v>0.13111</v>
       </c>
       <c r="C358" t="n">
-        <v>897177.29</v>
+        <v>642194</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B359" t="n">
-        <v>0.12265</v>
+        <v>0.12842</v>
       </c>
       <c r="C359" t="n">
-        <v>904304.03</v>
+        <v>419116.03</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B360" t="n">
-        <v>0.12499</v>
+        <v>0.1213</v>
       </c>
       <c r="C360" t="n">
-        <v>790810.4399999999</v>
+        <v>446262.19</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B361" t="n">
-        <v>0.12289</v>
+        <v>0.12996</v>
       </c>
       <c r="C361" t="n">
-        <v>1091135.31</v>
+        <v>587764.14</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B362" t="n">
-        <v>0.12016</v>
+        <v>0.12974</v>
       </c>
       <c r="C362" t="n">
-        <v>821649.7</v>
+        <v>641497.76</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B363" t="n">
-        <v>0.12262</v>
+        <v>0.12431</v>
       </c>
       <c r="C363" t="n">
-        <v>489946.47</v>
+        <v>665590.16</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B364" t="n">
-        <v>0.12789</v>
+        <v>0.12411</v>
       </c>
       <c r="C364" t="n">
-        <v>440827.27</v>
+        <v>378776.34</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45837</v>
+        <v>45844</v>
       </c>
       <c r="B365" t="n">
-        <v>0.13121</v>
+        <v>0.12664</v>
       </c>
       <c r="C365" t="n">
-        <v>641618.21</v>
+        <v>435821.43</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45838</v>
+        <v>45845</v>
       </c>
       <c r="B366" t="n">
-        <v>0.12996</v>
+        <v>0.12765</v>
       </c>
       <c r="C366" t="n">
-        <v>9399.120000000001</v>
+        <v>37734.75</v>
       </c>
     </row>
   </sheetData>
